--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1130577.523908903</v>
+        <v>1124573.314093624</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10884073.25903679</v>
+        <v>11140506.23072044</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>17.35112070699466</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>57.29212650174214</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>114.2656173771023</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>124.5403771939619</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892771</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52.90622424463295</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>114.2656173771016</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>239.1293185150365</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>54.34809064563621</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>16.7694235476328</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>138.5234422138599</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>299.2045957483991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>145.0891016767036</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>10.13659100914432</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994142962</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>19.86507844888256</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>20.38427178197973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>26.13627195705941</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>172.3645574474256</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.16281301712745</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.17596778974989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>180.9172429496418</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>54.10799870228442</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898456</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002381</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452345</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.936093944079</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.167438673965</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="3">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962485</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3120.355548834272</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3120.355548834272</v>
+        <v>1801.496187286511</v>
       </c>
       <c r="U4" t="n">
-        <v>3120.355548834272</v>
+        <v>1512.393320412154</v>
       </c>
       <c r="V4" t="n">
-        <v>3120.355548834272</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="W4" t="n">
-        <v>3120.355548834272</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936255</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792725</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3272.165191059035</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3066.187443443257</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3066.187443443257</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2735.124556099686</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.355900829572</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.890142568492</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4722,19 +4722,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,25 +4746,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X7" t="n">
         <v>1494.054724415577</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.624422581789</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7831921883597</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7831921883597</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>327.666552776024</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>327.666552776024</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>180.7766052781136</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.4316570185995</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1878.169188758594</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1878.169188758594</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995485</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734406</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758594</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1245.221808421813</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1617.939223126803</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1617.939223126803</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>3315.366840791853</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3061.836364065689</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2730.773476722119</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2378.004821452004</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2004.539063190924</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2004.539063190924</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,13 +5536,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>255.5942300127259</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>113.8823988549239</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3227.225672628157</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>3058.28948970025</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2908.172850287915</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2760.259756705521</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2613.369809207611</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2446.173709922491</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="U22" t="n">
-        <v>4401.757925742791</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>4147.073437536905</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>3857.656267499944</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3629.666716601927</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3408.874137458397</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2875.571313159223</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7189,25 +7189,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>986.1256051221279</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>817.189422194221</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>667.0727827818853</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>519.1596891994922</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>372.2697417015818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>55.47844587228388</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>34.7428785052337</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>193.7813791304758</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>104.0840080815016</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>61.40075786968298</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>114.1584408891645</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>45.04089287986264</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.6691671648098</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>71.22040037418623</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>111.4161395899844</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812322.1739518854</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>812322.1739518854</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.246005979</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165587</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165588</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
@@ -26334,7 +26334,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
@@ -26343,19 +26343,19 @@
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="M2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="N2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598201</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545131</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11600.2349971284</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1055543.67960518</v>
       </c>
       <c r="C6" t="n">
-        <v>273201.066122413</v>
+        <v>273201.0661224128</v>
       </c>
       <c r="D6" t="n">
-        <v>273201.0661224126</v>
+        <v>273201.0661224128</v>
       </c>
       <c r="E6" t="n">
-        <v>306240.0882580372</v>
+        <v>25449.94771932877</v>
       </c>
       <c r="F6" t="n">
-        <v>306240.0882580371</v>
+        <v>350862.4095266839</v>
       </c>
       <c r="G6" t="n">
-        <v>41366.75532122068</v>
+        <v>350862.4095266839</v>
       </c>
       <c r="H6" t="n">
-        <v>351209.7887810407</v>
+        <v>350862.4095266837</v>
       </c>
       <c r="I6" t="n">
-        <v>351209.7887810408</v>
+        <v>350862.4095266837</v>
       </c>
       <c r="J6" t="n">
-        <v>133678.5863837634</v>
+        <v>133331.2071294063</v>
       </c>
       <c r="K6" t="n">
-        <v>351209.7887810408</v>
+        <v>350862.4095266839</v>
       </c>
       <c r="L6" t="n">
-        <v>351209.7887810408</v>
+        <v>350862.4095266837</v>
       </c>
       <c r="M6" t="n">
-        <v>351209.7887810407</v>
+        <v>265807.381591172</v>
       </c>
       <c r="N6" t="n">
-        <v>351209.7887810407</v>
+        <v>350862.4095266838</v>
       </c>
       <c r="O6" t="n">
-        <v>269073.9581855895</v>
+        <v>350862.4095266838</v>
       </c>
       <c r="P6" t="n">
-        <v>351209.7887810406</v>
+        <v>350862.4095266839</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483757</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>277.2566436803258</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>270.4601319683928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>75.50340795433958</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>95.00857208220728</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>358.5862092445529</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.2815375435429</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>172.2573809594894</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>143.604523148444</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>331.8898480104174</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>149.2563847113954</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>51.24558311758204</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1124573.314093624</v>
+        <v>1127728.233435846</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>1042617.113969142</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11140506.23072044</v>
+        <v>10884073.25903679</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>120.3577665219461</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>17.35112070699466</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>40.9956583111366</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>124.5403771939619</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.14763241892771</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>101.8907566840625</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>61.42978662487786</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y8" t="n">
-        <v>54.34809064563621</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>138.5234422138599</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>210.1609968929771</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>140.5688478723433</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.0891016767036</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>93.62735786892075</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>91.61745183477008</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>27.1929266279065</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>41.33703994142962</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>19.86507844888256</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>172.3645574474256</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.65115569188777</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>106.9094576655908</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892427763</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012564</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835252</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.14770589484</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>1337.88200728809</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>952.0937546898456</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>541.1078499002381</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>126.0353997452345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875186</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899374</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1801.496187286511</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1512.393320412154</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>1257.708832206268</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W4" t="n">
-        <v>1257.708832206268</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="X4" t="n">
-        <v>1029.71928130825</v>
+        <v>1133.023436311642</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1133.023436311642</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672847</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.541421943132</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.541421943132</v>
+        <v>1715.010712843061</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.541421943132</v>
+        <v>1425.907845968705</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.541421943132</v>
+        <v>1171.223357762818</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>881.8061877258572</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>881.8061877258572</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>940.9479984342453</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>772.0118155063384</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>621.8951760940026</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X13" t="n">
-        <v>1466.014387565343</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y13" t="n">
-        <v>1245.221808421813</v>
+        <v>940.9479984342453</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3122.772272495085</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424041</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E16" t="n">
-        <v>526.5658826424041</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,13 +5536,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978459</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>422.7903292978459</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>422.7903292978459</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>255.5942300127259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>113.8823988549239</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2272.857469997002</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1983.7822433412</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6074,13 +6074,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6311,13 +6311,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2424.083128335929</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2241.228293990834</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2021.626829013775</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6548,13 +6548,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6645,19 +6645,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
         <v>1202.091371290588</v>
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7168,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>229.1622528061258</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.7428785052337</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.80660477764842</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>112.3005183048501</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>121.4225463903059</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>104.0840080815016</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>61.40075786968298</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>45.04089287986264</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>43.72409101823391</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>60.337363433037</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393473</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>975703.0709607549</v>
+        <v>975703.070960755</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959376.246005979</v>
+        <v>812322.1739518855</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959376.246005979</v>
+        <v>812322.1739518855</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959376.2460059791</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.246005979</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059788</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
@@ -26349,7 +26349,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545136</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881572</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1055543.67960518</v>
       </c>
       <c r="C6" t="n">
-        <v>273201.0661224128</v>
+        <v>273201.0661224131</v>
       </c>
       <c r="D6" t="n">
-        <v>273201.0661224128</v>
+        <v>273201.0661224124</v>
       </c>
       <c r="E6" t="n">
-        <v>25449.94771932877</v>
+        <v>305892.4693282312</v>
       </c>
       <c r="F6" t="n">
-        <v>350862.4095266839</v>
+        <v>305892.469328231</v>
       </c>
       <c r="G6" t="n">
-        <v>350862.4095266839</v>
+        <v>41332.01739578517</v>
       </c>
       <c r="H6" t="n">
-        <v>350862.4095266837</v>
+        <v>351175.050855605</v>
       </c>
       <c r="I6" t="n">
-        <v>350862.4095266837</v>
+        <v>351175.050855605</v>
       </c>
       <c r="J6" t="n">
-        <v>133331.2071294063</v>
+        <v>133643.8484583276</v>
       </c>
       <c r="K6" t="n">
-        <v>350862.4095266839</v>
+        <v>351175.050855605</v>
       </c>
       <c r="L6" t="n">
-        <v>350862.4095266837</v>
+        <v>351175.050855605</v>
       </c>
       <c r="M6" t="n">
-        <v>265807.381591172</v>
+        <v>351175.050855605</v>
       </c>
       <c r="N6" t="n">
-        <v>350862.4095266838</v>
+        <v>351175.0508556049</v>
       </c>
       <c r="O6" t="n">
-        <v>350862.4095266838</v>
+        <v>269039.2202601538</v>
       </c>
       <c r="P6" t="n">
-        <v>350862.4095266839</v>
+        <v>351175.050855605</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="E4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,14 +27020,14 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>341.3068326973555</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>341.3068326973555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>262.3760751415344</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>277.2566436803258</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>138.8363218708007</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>95.00857208220728</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.5862092445529</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>252.7922849366204</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>190.7078566989501</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y8" t="n">
-        <v>331.8898480104174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>51.24558311758204</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>9.387952383192101</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30428,7 +30428,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
